--- a/大四课表.xlsx
+++ b/大四课表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python\auto_chat_robot\wechat_robot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ABCABB-09E6-4C01-B3ED-91C3DA258716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,275 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开课周数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>1-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇数周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶数周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>大四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最优化</t>
+  </si>
+  <si>
+    <t>概率论与数理统计</t>
+  </si>
+  <si>
+    <t>电气工程</t>
+  </si>
+  <si>
+    <t>确定性信号处理</t>
+  </si>
+  <si>
+    <t>线性静力学</t>
+  </si>
+  <si>
+    <t>金属结构材料</t>
+  </si>
+  <si>
+    <t>基础流体力学和空气动力学</t>
+  </si>
+  <si>
+    <t>工程热力学</t>
+  </si>
+  <si>
+    <t>学科导论</t>
+  </si>
+  <si>
+    <t xml:space="preserve">项目管理 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>综合实验</t>
+  </si>
+  <si>
+    <t>外国语言文化与艺术</t>
+  </si>
+  <si>
+    <t>梁的线性理论</t>
+  </si>
+  <si>
+    <t>传热学</t>
+  </si>
+  <si>
+    <t>数据库设计</t>
+  </si>
+  <si>
+    <t>建模与仿真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行力学</t>
+  </si>
+  <si>
+    <t>飞机系统</t>
+  </si>
+  <si>
+    <t>形式与政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限元方法</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,15 +312,240 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +822,1247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.75" style="6" customWidth="1"/>
+    <col min="3" max="29" width="8.6640625" style="6"/>
+    <col min="30" max="30" width="28.08203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="8.6640625" style="5"/>
+    <col min="33" max="16384" width="8.6640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" s="11"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF6" s="11"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF7" s="6"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="6"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF9" s="6"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF10" s="11"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF11" s="6"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF12" s="6"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF13" s="11"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF14" s="6"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF15" s="6"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF16" s="6"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF17" s="6"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE18" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE19" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE20" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE21" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE22" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>5</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="5"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="5"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="5"/>
+    </row>
+    <row r="27" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="5"/>
+    </row>
+    <row r="28" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AD28" s="5"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AD29" s="5"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AD30" s="5"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AD31" s="5"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AD32" s="5"/>
+    </row>
+    <row r="33" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD33" s="5"/>
+    </row>
+    <row r="34" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD34" s="5"/>
+    </row>
+    <row r="35" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD35" s="5"/>
+    </row>
+    <row r="36" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD36" s="5"/>
+    </row>
+    <row r="37" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD37" s="5"/>
+    </row>
+    <row r="38" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD38" s="5"/>
+    </row>
+    <row r="39" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD39" s="5"/>
+    </row>
+    <row r="41" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD41" s="5"/>
+    </row>
+    <row r="42" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD42" s="5"/>
+    </row>
+    <row r="43" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD43" s="5"/>
+    </row>
+    <row r="44" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD44" s="5"/>
+    </row>
+    <row r="45" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD45" s="5"/>
+    </row>
+    <row r="46" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD46" s="5"/>
+    </row>
+    <row r="47" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD47" s="5"/>
+    </row>
+    <row r="48" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD48" s="5"/>
+    </row>
+    <row r="49" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD49" s="5"/>
+    </row>
+    <row r="50" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD50" s="5"/>
+    </row>
+    <row r="51" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD51" s="5"/>
+    </row>
+    <row r="52" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD52" s="5"/>
+    </row>
+    <row r="53" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD53" s="5"/>
+    </row>
+    <row r="54" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD54" s="5"/>
+    </row>
+    <row r="56" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD56" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI3 Z7 Z12 Z17 Z22 Z27 V7 V12 V17 V22 V27 R7 R12 R17 R22 R27 N7 N12 N17 N22 N27 J7 J12 J17 J22 J27 F7 F12 F17 F22 F27 B7 B12 B17 B22 B27" xr:uid="{1182BFA6-15D0-4B66-8A60-773D6BAC1F5E}">
+      <formula1>$AJ$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B26 B21 B16 B11 F6 F26 F21 F16 F11 J6 J26 J21 J16 J11 N6 N26 N21 N16 N11 R6 R26 R21 R16 R11 V6 V26 V21 V16 V11 Z6 Z26 Z21 Z16 Z11" xr:uid="{5D64A3F5-850D-4B14-9FEF-E1145A19D40F}">
+      <formula1>$AI$2:$AI$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B25 B20 B15 B10 F5 F25 F20 F15 F10 J5 J25 J20 J15 J10 N5 N25 N20 N15 N10 R5 R25 R20 R15 R10 V5 V25 V20 V15 V10 Z5 Z25 Z20 Z15 Z10" xr:uid="{B6A97A89-663F-4E4E-A067-0D288D260790}">
+      <formula1>$AH$2:$AH$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B24 B19 B14 B9 F4 F24 F19 F14 F9 J4 J24 J19 J14 J9 N4 N24 N19 N14 N9 R4 R24 R19 R14 R9 V4 V24 V19 V14 V9 Z4 Z24 Z19 Z14 Z9" xr:uid="{8E3732B9-01D6-4BA2-A4E4-2DB8A7E1EDDF}">
+      <formula1>$AG$2:$AG$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B23 B18 B13 B8 F3 F23 F18 F13 F8 J3 J23 J18 J13 J8 N3 N23 N18 N13 N8 R3 R23 R18 R13 R8 V3 V23 V18 V13 V8 Z3 Z23 Z18 Z13 Z8" xr:uid="{E5A8D87A-C068-4753-8E91-0A155B5DA228}">
+      <formula1>$AF$2:$AF$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D27 H3:H27 L3:L27 P3:P27 T3:T27 X3:X27 AB3:AB27" xr:uid="{BB3E4D8E-2EC8-4379-90CC-375D668B0B74}">
+      <formula1>$AE$2:$AE$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C27 G3:G27 K3:K27 O3:O27 S3:S27 W3:W27 AA3:AA27" xr:uid="{CF8FC143-1FFB-44AB-984A-D7BEF2894005}">
+      <formula1>$AD$2:$AD$22</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>